--- a/folder_with_orders/orders_format_metaship.xlsx
+++ b/folder_with_orders/orders_format_metaship.xlsx
@@ -629,13 +629,13 @@
       <selection pane="bottomRight" activeCell="AG12" activeCellId="0" sqref="AG12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.49"/>
